--- a/training/Quan/Add2Num/Customer feedback.xlsx
+++ b/training/Quan/Add2Num/Customer feedback.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA2B517-D561-4389-9DF4-013E123F27C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A694B5-0A63-4C67-A932-C01C0F1DAA96}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="23520" windowHeight="16596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t xml:space="preserve">                            </t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>Low</t>
+  </si>
+  <si>
+    <t>Coding Convention</t>
+  </si>
+  <si>
+    <t>Alphabet exception</t>
+  </si>
+  <si>
+    <t>Null Exception</t>
+  </si>
+  <si>
+    <t>Special character exception</t>
   </si>
 </sst>
 </file>
@@ -509,6 +521,41 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <u val="none"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="6" tint="0.79998168889431442"/>
@@ -558,41 +605,6 @@
         <name val="Rockwell"/>
         <family val="1"/>
         <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <u val="none"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
       </font>
     </dxf>
     <dxf>
@@ -1022,14 +1034,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ToDoList" displayName="ToDoList" ref="B6:F12" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="B6:F12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ToDoList" displayName="ToDoList" ref="B6:F16" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="B6:F16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Done" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Due Date" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Priority" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Assigned to" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Done" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Due Date" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Priority" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Assigned to" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="Address Book" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1041,7 +1053,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="ColorKeys" displayName="ColorKeys" ref="B3:B4" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="ColorKeys" displayName="ColorKeys" ref="B3:B4" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Assigned To"/>
   </tableColumns>
@@ -1285,10 +1297,10 @@
     <tabColor theme="7" tint="0.59999389629810485"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="30" customHeight="1"/>
@@ -1489,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D9" s="6">
         <f ca="1">TODAY()+1</f>
@@ -1510,16 +1522,18 @@
     </row>
     <row r="10" spans="1:17" ht="30" customHeight="1">
       <c r="A10" s="28"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
       <c r="C10" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D10" s="6">
         <f ca="1">TODAY()+1</f>
         <v>43461</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>19</v>
@@ -1537,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D11" s="6">
         <f ca="1">TODAY()+1</f>
@@ -1562,11 +1576,11 @@
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" ref="D12" ca="1" si="0">TODAY()-1</f>
-        <v>43459</v>
+        <f ca="1">TODAY()+1</f>
+        <v>43461</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
@@ -1582,6 +1596,23 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="30" customHeight="1">
+      <c r="A13" s="28"/>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6">
+        <f ca="1">TODAY()+1</f>
+        <v>43461</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1590,6 +1621,21 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="30" customHeight="1">
+      <c r="A14" s="28"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6">
+        <f ca="1">TODAY()+1</f>
+        <v>43461</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1597,35 +1643,101 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
+    <row r="15" spans="1:17" ht="30" customHeight="1">
+      <c r="A15" s="28"/>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6">
+        <f ca="1">TODAY()+1</f>
+        <v>43461</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" ht="30" customHeight="1">
+      <c r="A16" s="28"/>
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16" ca="1" si="0">TODAY()-1</f>
+        <v>43459</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="9:14" ht="30" customHeight="1">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="9:14" ht="30" customHeight="1">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A7:A16"/>
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C7:C12">
-    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="C7:C16">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>D7=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:F12">
-    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="C7:F16">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>$B7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$D7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>AND(B7&lt;&gt;1,D7=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>AND($B7&lt;&gt;1,$D7&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="17">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select Priority from the list. Select CANCEL, press ALT+DOWN ARROW for options, then DOWN ARROW and ENTER to make selection" sqref="E7:E12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select Priority from the list. Select CANCEL, press ALT+DOWN ARROW for options, then DOWN ARROW and ENTER to make selection" sqref="E7:E16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select Assigned to names from the list. Select CANCEL, press ALT+DOWN ARROW for options, then DOWN ARROW and ENTER to make selection" sqref="F7:F12" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select Assigned to names from the list. Select CANCEL, press ALT+DOWN ARROW for options, then DOWN ARROW and ENTER to make selection" sqref="F7:F16" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Assignedto</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create To Do List in this workbook. Enter details in To Do List table in this worksheet. Select cell F1 to navigate to Setup worksheet. Due &amp; Overdue days are automatically updated" sqref="A1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
@@ -1676,7 +1788,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B7:B12</xm:sqref>
+          <xm:sqref>B7:B16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1777,24 +1889,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2002,25 +2096,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03CCC4C8-6A95-4999-B963-115A022CA31F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{920DC3BD-3C4B-4C78-91FF-63EB10F70D2C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7118F064-9046-4DCB-A010-2D274D0FB549}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2038,4 +2132,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{920DC3BD-3C4B-4C78-91FF-63EB10F70D2C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03CCC4C8-6A95-4999-B963-115A022CA31F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>